--- a/競馬.xlsx
+++ b/競馬.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masamu/Desktop/競馬AI作成用/github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masamu/Desktop/競馬AI作成用/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475024FC-2568-1B45-9DA3-3CC50B8C1582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8C411-1B06-854C-8996-EB3A0D7F0B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15600" xr2:uid="{EC18C32B-C38D-8C49-98DA-57F08BD4ACA2}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>https://github.com/koumura-m/horse.git</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Git構成管理</t>
     <rPh sb="0" eb="2">
       <t>コウセ</t>
@@ -43,6 +39,10 @@
   </si>
   <si>
     <t>Branch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git clone -b work git@github.com:koumura-m/horse.git work</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -190,14 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,7 +535,7 @@
   <dimension ref="B2:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="E5" sqref="E5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="20"/>
@@ -545,155 +545,155 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="2:21">
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="2:21">
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="2:21">
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:21">
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="2:21">
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E9:U9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D9"/>
     <mergeCell ref="E4:U4"/>
     <mergeCell ref="E5:U5"/>
     <mergeCell ref="E6:U6"/>
     <mergeCell ref="E7:U7"/>
     <mergeCell ref="E8:U8"/>
-    <mergeCell ref="E9:U9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{84012288-58A7-714E-8ECF-6796227EB578}"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://github.com/koumura-m/horse.git" xr:uid="{84012288-58A7-714E-8ECF-6796227EB578}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/競馬.xlsx
+++ b/競馬.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masamu/Desktop/競馬AI作成用/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8C411-1B06-854C-8996-EB3A0D7F0B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E23C2-D0A1-5B4B-8E62-7950E5D065B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15600" xr2:uid="{EC18C32B-C38D-8C49-98DA-57F08BD4ACA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Git構成管理</t>
     <rPh sb="0" eb="2">
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>git clone -b work git@github.com:koumura-m/horse.git work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -190,32 +194,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -535,7 +539,7 @@
   <dimension ref="B2:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:U5"/>
+      <selection activeCell="E6" sqref="E6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="20"/>
@@ -549,136 +553,138 @@
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/競馬.xlsx
+++ b/競馬.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masamu/Desktop/競馬AI作成用/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E23C2-D0A1-5B4B-8E62-7950E5D065B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C115E1-0CBB-B041-9D25-8A07EA0A7356}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15600" xr2:uid="{EC18C32B-C38D-8C49-98DA-57F08BD4ACA2}"/>
+    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15600" activeTab="1" xr2:uid="{EC18C32B-C38D-8C49-98DA-57F08BD4ACA2}"/>
   </bookViews>
   <sheets>
     <sheet name="管理" sheetId="1" r:id="rId1"/>
+    <sheet name="gitコマンド" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Git構成管理</t>
     <rPh sb="0" eb="2">
@@ -47,6 +48,109 @@
   </si>
   <si>
     <t>work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t>イm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ配下の変更のあるファイルを全て読み込ませる</t>
+    <rPh sb="0" eb="2">
+      <t>ハイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addされたファイルを確認(左記コマンド入力後変更を加えたファイル名が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>カkニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git commit -m "コミットログ名"</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミット</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git push</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミット対象になったファイルが表示される(別にやらなくてもいいやつ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリに反映させる</t>
+    <rPh sb="0" eb="2">
+      <t>ハンエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミット手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brunchを更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git pull</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -54,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +191,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +339,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F8006-4CEC-9B44-BC93-412D99209616}">
   <dimension ref="B2:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:U6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="20"/>
@@ -703,4 +828,106 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C5CD54-2265-F44F-8159-690F8729132D}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/競馬.xlsx
+++ b/競馬.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masamu/Desktop/競馬AI作成用/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\競馬\keiba_AI\source\horse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C115E1-0CBB-B041-9D25-8A07EA0A7356}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5982F93-0B63-4DD7-912F-F1667F499E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15600" activeTab="1" xr2:uid="{EC18C32B-C38D-8C49-98DA-57F08BD4ACA2}"/>
+    <workbookView xWindow="33150" yWindow="4200" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{EC18C32B-C38D-8C49-98DA-57F08BD4ACA2}"/>
   </bookViews>
   <sheets>
     <sheet name="管理" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Git構成管理</t>
     <rPh sb="0" eb="2">
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>git pull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -313,6 +317,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -339,12 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -667,9 +671,9 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
@@ -678,138 +682,138 @@
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -832,21 +836,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C5CD54-2265-F44F-8159-690F8729132D}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.8"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="72.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -862,7 +866,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -873,7 +877,7 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
@@ -884,7 +888,7 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
@@ -895,7 +899,7 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
@@ -906,7 +910,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
@@ -922,12 +926,18 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>